--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Ror2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -528,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H2">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I2">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J2">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.669265333333333</v>
+        <v>0.491263</v>
       </c>
       <c r="N2">
-        <v>14.007796</v>
+        <v>1.473789</v>
       </c>
       <c r="O2">
-        <v>0.8833113458668934</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="P2">
-        <v>0.8833113458668933</v>
+        <v>0.08507192955174299</v>
       </c>
       <c r="Q2">
-        <v>4.549828638950222</v>
+        <v>0.31375494021</v>
       </c>
       <c r="R2">
-        <v>40.948457750552</v>
+        <v>2.82379446189</v>
       </c>
       <c r="S2">
-        <v>0.02861551555578257</v>
+        <v>0.001840100026176315</v>
       </c>
       <c r="T2">
-        <v>0.02861551555578257</v>
+        <v>0.001840100026176315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H3">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I3">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J3">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5993529999999999</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N3">
-        <v>1.798059</v>
+        <v>14.007796</v>
       </c>
       <c r="O3">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="P3">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815605</v>
       </c>
       <c r="Q3">
-        <v>0.5840219498286666</v>
+        <v>2.982119690439999</v>
       </c>
       <c r="R3">
-        <v>5.256197548458</v>
+        <v>26.83907721396</v>
       </c>
       <c r="S3">
-        <v>0.003673124971602588</v>
+        <v>0.01748944101650404</v>
       </c>
       <c r="T3">
-        <v>0.003673124971602589</v>
+        <v>0.01748944101650405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H4">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I4">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J4">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.017474</v>
+        <v>0.6141496666666667</v>
       </c>
       <c r="N4">
-        <v>0.052422</v>
+        <v>1.842449</v>
       </c>
       <c r="O4">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="P4">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="Q4">
-        <v>0.01702702672933333</v>
+        <v>0.39223896761</v>
       </c>
       <c r="R4">
-        <v>0.153243240564</v>
+        <v>3.53015070849</v>
       </c>
       <c r="S4">
-        <v>0.0001070891206914517</v>
+        <v>0.00230039066184408</v>
       </c>
       <c r="T4">
-        <v>0.0001070891206914517</v>
+        <v>0.002300390661844081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +726,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I5">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J5">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.669265333333333</v>
+        <v>0.491263</v>
       </c>
       <c r="N5">
-        <v>14.007796</v>
+        <v>1.473789</v>
       </c>
       <c r="O5">
-        <v>0.8833113458668934</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="P5">
-        <v>0.8833113458668933</v>
+        <v>0.08507192955174299</v>
       </c>
       <c r="Q5">
-        <v>130.8399959700826</v>
+        <v>13.765944822494</v>
       </c>
       <c r="R5">
-        <v>1177.559963730744</v>
+        <v>123.893503402446</v>
       </c>
       <c r="S5">
-        <v>0.8228999896717628</v>
+        <v>0.08073407676468379</v>
       </c>
       <c r="T5">
-        <v>0.8228999896717628</v>
+        <v>0.0807340767646838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +788,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I6">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J6">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5993529999999999</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N6">
-        <v>1.798059</v>
+        <v>14.007796</v>
       </c>
       <c r="O6">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="P6">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815605</v>
       </c>
       <c r="Q6">
-        <v>16.79479286491399</v>
+        <v>130.8399959700826</v>
       </c>
       <c r="R6">
-        <v>151.153135784226</v>
+        <v>1177.559963730744</v>
       </c>
       <c r="S6">
-        <v>0.1056285180430397</v>
+        <v>0.7673462602638711</v>
       </c>
       <c r="T6">
-        <v>0.1056285180430398</v>
+        <v>0.7673462602638714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +850,40 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I7">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J7">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.017474</v>
+        <v>0.6141496666666667</v>
       </c>
       <c r="N7">
-        <v>0.052422</v>
+        <v>1.842449</v>
       </c>
       <c r="O7">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="P7">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="Q7">
-        <v>0.4896483550119999</v>
+        <v>17.20941822218733</v>
       </c>
       <c r="R7">
-        <v>4.406835195108</v>
+        <v>154.884763999686</v>
       </c>
       <c r="S7">
-        <v>0.003079575349225042</v>
+        <v>0.1009292503886343</v>
       </c>
       <c r="T7">
-        <v>0.003079575349225043</v>
+        <v>0.1009292503886343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H8">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I8">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J8">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.669265333333333</v>
+        <v>0.491263</v>
       </c>
       <c r="N8">
-        <v>14.007796</v>
+        <v>1.473789</v>
       </c>
       <c r="O8">
-        <v>0.8833113458668934</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="P8">
-        <v>0.8833113458668933</v>
+        <v>0.08507192955174299</v>
       </c>
       <c r="Q8">
-        <v>5.055496066754221</v>
+        <v>0.425891123853</v>
       </c>
       <c r="R8">
-        <v>45.499464600788</v>
+        <v>3.833020114677</v>
       </c>
       <c r="S8">
-        <v>0.03179584063934803</v>
+        <v>0.002497752760882864</v>
       </c>
       <c r="T8">
-        <v>0.03179584063934803</v>
+        <v>0.002497752760882865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H9">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I9">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J9">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5993529999999999</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N9">
-        <v>1.798059</v>
+        <v>14.007796</v>
       </c>
       <c r="O9">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="P9">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815605</v>
       </c>
       <c r="Q9">
-        <v>0.6489300816696666</v>
+        <v>4.047930864692</v>
       </c>
       <c r="R9">
-        <v>5.840370735026999</v>
+        <v>36.431377782228</v>
       </c>
       <c r="S9">
-        <v>0.004081355655389718</v>
+        <v>0.02374017660118507</v>
       </c>
       <c r="T9">
-        <v>0.004081355655389718</v>
+        <v>0.02374017660118507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H10">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I10">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J10">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.017474</v>
+        <v>0.6141496666666667</v>
       </c>
       <c r="N10">
-        <v>0.052422</v>
+        <v>1.842449</v>
       </c>
       <c r="O10">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="P10">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="Q10">
-        <v>0.01891940850733333</v>
+        <v>0.532425384673</v>
       </c>
       <c r="R10">
-        <v>0.170274676566</v>
+        <v>4.791828462057</v>
       </c>
       <c r="S10">
-        <v>0.0001189909931580887</v>
+        <v>0.003122551516218314</v>
       </c>
       <c r="T10">
-        <v>0.0001189909931580887</v>
+        <v>0.003122551516218314</v>
       </c>
     </row>
   </sheetData>
